--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Ptdss1-Jmjd6.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Ptdss1-Jmjd6.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.032725635907219</v>
+        <v>8.049140666666666</v>
       </c>
       <c r="H2">
-        <v>8.032725635907219</v>
+        <v>24.147422</v>
       </c>
       <c r="I2">
-        <v>0.1978370188448159</v>
+        <v>0.1957158756688463</v>
       </c>
       <c r="J2">
-        <v>0.1978370188448159</v>
+        <v>0.1957158756688463</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.290334762114741</v>
+        <v>9.477837333333333</v>
       </c>
       <c r="N2">
-        <v>9.290334762114741</v>
+        <v>28.433512</v>
       </c>
       <c r="O2">
-        <v>0.2267887698805642</v>
+        <v>0.2264370231667431</v>
       </c>
       <c r="P2">
-        <v>0.2267887698805642</v>
+        <v>0.2264370231667431</v>
       </c>
       <c r="Q2">
-        <v>74.62671020979907</v>
+        <v>76.28844591178489</v>
       </c>
       <c r="R2">
-        <v>74.62671020979907</v>
+        <v>686.596013206064</v>
       </c>
       <c r="S2">
-        <v>0.0448672141406538</v>
+        <v>0.04431732027292596</v>
       </c>
       <c r="T2">
-        <v>0.0448672141406538</v>
+        <v>0.04431732027292596</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.032725635907219</v>
+        <v>8.049140666666666</v>
       </c>
       <c r="H3">
-        <v>8.032725635907219</v>
+        <v>24.147422</v>
       </c>
       <c r="I3">
-        <v>0.1978370188448159</v>
+        <v>0.1957158756688463</v>
       </c>
       <c r="J3">
-        <v>0.1978370188448159</v>
+        <v>0.1957158756688463</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.5634242638437</v>
+        <v>10.56956933333333</v>
       </c>
       <c r="N3">
-        <v>10.5634242638437</v>
+        <v>31.708708</v>
       </c>
       <c r="O3">
-        <v>0.257866487684917</v>
+        <v>0.2525198240718027</v>
       </c>
       <c r="P3">
-        <v>0.257866487684917</v>
+        <v>0.2525198240718027</v>
       </c>
       <c r="Q3">
-        <v>84.85308888714164</v>
+        <v>85.07595035008622</v>
       </c>
       <c r="R3">
-        <v>84.85308888714164</v>
+        <v>765.683553150776</v>
       </c>
       <c r="S3">
-        <v>0.05101553718356741</v>
+        <v>0.04942213849195589</v>
       </c>
       <c r="T3">
-        <v>0.05101553718356741</v>
+        <v>0.04942213849195588</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.032725635907219</v>
+        <v>8.049140666666666</v>
       </c>
       <c r="H4">
-        <v>8.032725635907219</v>
+        <v>24.147422</v>
       </c>
       <c r="I4">
-        <v>0.1978370188448159</v>
+        <v>0.1957158756688463</v>
       </c>
       <c r="J4">
-        <v>0.1978370188448159</v>
+        <v>0.1957158756688463</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.59713206719531</v>
+        <v>7.776677</v>
       </c>
       <c r="N4">
-        <v>7.59713206719531</v>
+        <v>23.330031</v>
       </c>
       <c r="O4">
-        <v>0.1854555600262591</v>
+        <v>0.185794240613957</v>
       </c>
       <c r="P4">
-        <v>0.1854555600262591</v>
+        <v>0.185794240613957</v>
       </c>
       <c r="Q4">
-        <v>61.02567751553258</v>
+        <v>62.59556709223133</v>
       </c>
       <c r="R4">
-        <v>61.02567751553258</v>
+        <v>563.360103830082</v>
       </c>
       <c r="S4">
-        <v>0.03668997512379091</v>
+        <v>0.03636288249598893</v>
       </c>
       <c r="T4">
-        <v>0.03668997512379091</v>
+        <v>0.03636288249598892</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.032725635907219</v>
+        <v>8.049140666666666</v>
       </c>
       <c r="H5">
-        <v>8.032725635907219</v>
+        <v>24.147422</v>
       </c>
       <c r="I5">
-        <v>0.1978370188448159</v>
+        <v>0.1957158756688463</v>
       </c>
       <c r="J5">
-        <v>0.1978370188448159</v>
+        <v>0.1957158756688463</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.73290672060299</v>
+        <v>8.986648666666666</v>
       </c>
       <c r="N5">
-        <v>8.73290672060299</v>
+        <v>26.959946</v>
       </c>
       <c r="O5">
-        <v>0.2131812494770039</v>
+        <v>0.2147019304887888</v>
       </c>
       <c r="P5">
-        <v>0.2131812494770039</v>
+        <v>0.2147019304887888</v>
       </c>
       <c r="Q5">
-        <v>70.14904369057409</v>
+        <v>72.33479923991243</v>
       </c>
       <c r="R5">
-        <v>70.14904369057409</v>
+        <v>651.0131931592119</v>
       </c>
       <c r="S5">
-        <v>0.04217514287014341</v>
+        <v>0.04202057633340507</v>
       </c>
       <c r="T5">
-        <v>0.04217514287014341</v>
+        <v>0.04202057633340507</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.032725635907219</v>
+        <v>8.049140666666666</v>
       </c>
       <c r="H6">
-        <v>8.032725635907219</v>
+        <v>24.147422</v>
       </c>
       <c r="I6">
-        <v>0.1978370188448159</v>
+        <v>0.1957158756688463</v>
       </c>
       <c r="J6">
-        <v>0.1978370188448159</v>
+        <v>0.1957158756688463</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.78090589272482</v>
+        <v>5.045662</v>
       </c>
       <c r="N6">
-        <v>4.78090589272482</v>
+        <v>15.136986</v>
       </c>
       <c r="O6">
-        <v>0.1167079329312559</v>
+        <v>0.1205469816587084</v>
       </c>
       <c r="P6">
-        <v>0.1167079329312559</v>
+        <v>0.1205469816587084</v>
       </c>
       <c r="Q6">
-        <v>38.40370532735055</v>
+        <v>40.61324319445467</v>
       </c>
       <c r="R6">
-        <v>38.40370532735055</v>
+        <v>365.519188750092</v>
       </c>
       <c r="S6">
-        <v>0.02308914952666039</v>
+        <v>0.02359295807457047</v>
       </c>
       <c r="T6">
-        <v>0.02308914952666039</v>
+        <v>0.02359295807457047</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.4642532416764</v>
+        <v>10.54499533333333</v>
       </c>
       <c r="H7">
-        <v>10.4642532416764</v>
+        <v>31.634986</v>
       </c>
       <c r="I7">
-        <v>0.2577228153438168</v>
+        <v>0.2564028982788181</v>
       </c>
       <c r="J7">
-        <v>0.2577228153438168</v>
+        <v>0.2564028982788181</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.290334762114741</v>
+        <v>9.477837333333333</v>
       </c>
       <c r="N7">
-        <v>9.290334762114741</v>
+        <v>28.433512</v>
       </c>
       <c r="O7">
-        <v>0.2267887698805642</v>
+        <v>0.2264370231667431</v>
       </c>
       <c r="P7">
-        <v>0.2267887698805642</v>
+        <v>0.2264370231667431</v>
       </c>
       <c r="Q7">
-        <v>97.21641565071812</v>
+        <v>99.94375045009244</v>
       </c>
       <c r="R7">
-        <v>97.21641565071812</v>
+        <v>899.493754050832</v>
       </c>
       <c r="S7">
-        <v>0.05844864026198</v>
+        <v>0.0580591090175808</v>
       </c>
       <c r="T7">
-        <v>0.05844864026198</v>
+        <v>0.05805910901758079</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.4642532416764</v>
+        <v>10.54499533333333</v>
       </c>
       <c r="H8">
-        <v>10.4642532416764</v>
+        <v>31.634986</v>
       </c>
       <c r="I8">
-        <v>0.2577228153438168</v>
+        <v>0.2564028982788181</v>
       </c>
       <c r="J8">
-        <v>0.2577228153438168</v>
+        <v>0.2564028982788181</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.5634242638437</v>
+        <v>10.56956933333333</v>
       </c>
       <c r="N8">
-        <v>10.5634242638437</v>
+        <v>31.708708</v>
       </c>
       <c r="O8">
-        <v>0.257866487684917</v>
+        <v>0.2525198240718027</v>
       </c>
       <c r="P8">
-        <v>0.257866487684917</v>
+        <v>0.2525198240718027</v>
       </c>
       <c r="Q8">
-        <v>110.5383465961296</v>
+        <v>111.4560592953431</v>
       </c>
       <c r="R8">
-        <v>110.5383465961296</v>
+        <v>1003.104533658088</v>
       </c>
       <c r="S8">
-        <v>0.06645807718897848</v>
+        <v>0.06474681476486747</v>
       </c>
       <c r="T8">
-        <v>0.06645807718897848</v>
+        <v>0.06474681476486746</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.4642532416764</v>
+        <v>10.54499533333333</v>
       </c>
       <c r="H9">
-        <v>10.4642532416764</v>
+        <v>31.634986</v>
       </c>
       <c r="I9">
-        <v>0.2577228153438168</v>
+        <v>0.2564028982788181</v>
       </c>
       <c r="J9">
-        <v>0.2577228153438168</v>
+        <v>0.2564028982788181</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.59713206719531</v>
+        <v>7.776677</v>
       </c>
       <c r="N9">
-        <v>7.59713206719531</v>
+        <v>23.330031</v>
       </c>
       <c r="O9">
-        <v>0.1854555600262591</v>
+        <v>0.185794240613957</v>
       </c>
       <c r="P9">
-        <v>0.1854555600262591</v>
+        <v>0.185794240613957</v>
       </c>
       <c r="Q9">
-        <v>79.49831386159225</v>
+        <v>82.00502267384067</v>
       </c>
       <c r="R9">
-        <v>79.49831386159225</v>
+        <v>738.045204064566</v>
       </c>
       <c r="S9">
-        <v>0.04779612905113172</v>
+        <v>0.04763818177693067</v>
       </c>
       <c r="T9">
-        <v>0.04779612905113172</v>
+        <v>0.04763818177693067</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.4642532416764</v>
+        <v>10.54499533333333</v>
       </c>
       <c r="H10">
-        <v>10.4642532416764</v>
+        <v>31.634986</v>
       </c>
       <c r="I10">
-        <v>0.2577228153438168</v>
+        <v>0.2564028982788181</v>
       </c>
       <c r="J10">
-        <v>0.2577228153438168</v>
+        <v>0.2564028982788181</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.73290672060299</v>
+        <v>8.986648666666666</v>
       </c>
       <c r="N10">
-        <v>8.73290672060299</v>
+        <v>26.959946</v>
       </c>
       <c r="O10">
-        <v>0.2131812494770039</v>
+        <v>0.2147019304887888</v>
       </c>
       <c r="P10">
-        <v>0.2131812494770039</v>
+        <v>0.2147019304887888</v>
       </c>
       <c r="Q10">
-        <v>91.38334746032746</v>
+        <v>94.76416825230621</v>
       </c>
       <c r="R10">
-        <v>91.38334746032746</v>
+        <v>852.8775142707559</v>
       </c>
       <c r="S10">
-        <v>0.05494167179372601</v>
+        <v>0.05505019724338277</v>
       </c>
       <c r="T10">
-        <v>0.05494167179372601</v>
+        <v>0.05505019724338277</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.4642532416764</v>
+        <v>10.54499533333333</v>
       </c>
       <c r="H11">
-        <v>10.4642532416764</v>
+        <v>31.634986</v>
       </c>
       <c r="I11">
-        <v>0.2577228153438168</v>
+        <v>0.2564028982788181</v>
       </c>
       <c r="J11">
-        <v>0.2577228153438168</v>
+        <v>0.2564028982788181</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.78090589272482</v>
+        <v>5.045662</v>
       </c>
       <c r="N11">
-        <v>4.78090589272482</v>
+        <v>15.136986</v>
       </c>
       <c r="O11">
-        <v>0.1167079329312559</v>
+        <v>0.1205469816587084</v>
       </c>
       <c r="P11">
-        <v>0.1167079329312559</v>
+        <v>0.1205469816587084</v>
       </c>
       <c r="Q11">
-        <v>50.0286099860955</v>
+        <v>53.20648224357733</v>
       </c>
       <c r="R11">
-        <v>50.0286099860955</v>
+        <v>478.858340192196</v>
       </c>
       <c r="S11">
-        <v>0.03007829704800062</v>
+        <v>0.03090859547605636</v>
       </c>
       <c r="T11">
-        <v>0.03007829704800062</v>
+        <v>0.03090859547605636</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>10.0749596270082</v>
+        <v>10.09243133333333</v>
       </c>
       <c r="H12">
-        <v>10.0749596270082</v>
+        <v>30.277294</v>
       </c>
       <c r="I12">
-        <v>0.2481349504431403</v>
+        <v>0.2453987472490068</v>
       </c>
       <c r="J12">
-        <v>0.2481349504431403</v>
+        <v>0.2453987472490068</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.290334762114741</v>
+        <v>9.477837333333333</v>
       </c>
       <c r="N12">
-        <v>9.290334762114741</v>
+        <v>28.433512</v>
       </c>
       <c r="O12">
-        <v>0.2267887698805642</v>
+        <v>0.2264370231667431</v>
       </c>
       <c r="P12">
-        <v>0.2267887698805642</v>
+        <v>0.2264370231667431</v>
       </c>
       <c r="Q12">
-        <v>93.59974764969684</v>
+        <v>95.65442247516978</v>
       </c>
       <c r="R12">
-        <v>93.59974764969684</v>
+        <v>860.889802276528</v>
       </c>
       <c r="S12">
-        <v>0.05627422017537455</v>
+        <v>0.05556736181591309</v>
       </c>
       <c r="T12">
-        <v>0.05627422017537455</v>
+        <v>0.05556736181591308</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>10.0749596270082</v>
+        <v>10.09243133333333</v>
       </c>
       <c r="H13">
-        <v>10.0749596270082</v>
+        <v>30.277294</v>
       </c>
       <c r="I13">
-        <v>0.2481349504431403</v>
+        <v>0.2453987472490068</v>
       </c>
       <c r="J13">
-        <v>0.2481349504431403</v>
+        <v>0.2453987472490068</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.5634242638437</v>
+        <v>10.56956933333333</v>
       </c>
       <c r="N13">
-        <v>10.5634242638437</v>
+        <v>31.708708</v>
       </c>
       <c r="O13">
-        <v>0.257866487684917</v>
+        <v>0.2525198240718027</v>
       </c>
       <c r="P13">
-        <v>0.257866487684917</v>
+        <v>0.2525198240718027</v>
       </c>
       <c r="Q13">
-        <v>106.4260729811841</v>
+        <v>106.6726527195725</v>
       </c>
       <c r="R13">
-        <v>106.4260729811841</v>
+        <v>960.053874476152</v>
       </c>
       <c r="S13">
-        <v>0.06398568814264353</v>
+        <v>0.06196804848276</v>
       </c>
       <c r="T13">
-        <v>0.06398568814264353</v>
+        <v>0.06196804848275998</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>10.0749596270082</v>
+        <v>10.09243133333333</v>
       </c>
       <c r="H14">
-        <v>10.0749596270082</v>
+        <v>30.277294</v>
       </c>
       <c r="I14">
-        <v>0.2481349504431403</v>
+        <v>0.2453987472490068</v>
       </c>
       <c r="J14">
-        <v>0.2481349504431403</v>
+        <v>0.2453987472490068</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.59713206719531</v>
+        <v>7.776677</v>
       </c>
       <c r="N14">
-        <v>7.59713206719531</v>
+        <v>23.330031</v>
       </c>
       <c r="O14">
-        <v>0.1854555600262591</v>
+        <v>0.185794240613957</v>
       </c>
       <c r="P14">
-        <v>0.1854555600262591</v>
+        <v>0.185794240613957</v>
       </c>
       <c r="Q14">
-        <v>76.54079885804209</v>
+        <v>78.48557862401267</v>
       </c>
       <c r="R14">
-        <v>76.54079885804209</v>
+        <v>706.370207616114</v>
       </c>
       <c r="S14">
-        <v>0.04601800619652064</v>
+        <v>0.0455936738927456</v>
       </c>
       <c r="T14">
-        <v>0.04601800619652064</v>
+        <v>0.04559367389274559</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>10.0749596270082</v>
+        <v>10.09243133333333</v>
       </c>
       <c r="H15">
-        <v>10.0749596270082</v>
+        <v>30.277294</v>
       </c>
       <c r="I15">
-        <v>0.2481349504431403</v>
+        <v>0.2453987472490068</v>
       </c>
       <c r="J15">
-        <v>0.2481349504431403</v>
+        <v>0.2453987472490068</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.73290672060299</v>
+        <v>8.986648666666666</v>
       </c>
       <c r="N15">
-        <v>8.73290672060299</v>
+        <v>26.959946</v>
       </c>
       <c r="O15">
-        <v>0.2131812494770039</v>
+        <v>0.2147019304887888</v>
       </c>
       <c r="P15">
-        <v>0.2131812494770039</v>
+        <v>0.2147019304887888</v>
       </c>
       <c r="Q15">
-        <v>87.9836826365037</v>
+        <v>90.69713458512489</v>
       </c>
       <c r="R15">
-        <v>87.9836826365037</v>
+        <v>816.274211266124</v>
       </c>
       <c r="S15">
-        <v>0.05289771877438309</v>
+        <v>0.05268758477389211</v>
       </c>
       <c r="T15">
-        <v>0.05289771877438309</v>
+        <v>0.05268758477389211</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>10.0749596270082</v>
+        <v>10.09243133333333</v>
       </c>
       <c r="H16">
-        <v>10.0749596270082</v>
+        <v>30.277294</v>
       </c>
       <c r="I16">
-        <v>0.2481349504431403</v>
+        <v>0.2453987472490068</v>
       </c>
       <c r="J16">
-        <v>0.2481349504431403</v>
+        <v>0.2453987472490068</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.78090589272482</v>
+        <v>5.045662</v>
       </c>
       <c r="N16">
-        <v>4.78090589272482</v>
+        <v>15.136986</v>
       </c>
       <c r="O16">
-        <v>0.1167079329312559</v>
+        <v>0.1205469816587084</v>
       </c>
       <c r="P16">
-        <v>0.1167079329312559</v>
+        <v>0.1205469816587084</v>
       </c>
       <c r="Q16">
-        <v>48.16743384972816</v>
+        <v>50.92299726620934</v>
       </c>
       <c r="R16">
-        <v>48.16743384972816</v>
+        <v>458.306975395884</v>
       </c>
       <c r="S16">
-        <v>0.02895931715421853</v>
+        <v>0.02958207828369605</v>
       </c>
       <c r="T16">
-        <v>0.02895931715421853</v>
+        <v>0.02958207828369604</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.93650425482743</v>
+        <v>8.966928333333334</v>
       </c>
       <c r="H17">
-        <v>8.93650425482743</v>
+        <v>26.900785</v>
       </c>
       <c r="I17">
-        <v>0.2200960720936408</v>
+        <v>0.2180319991282865</v>
       </c>
       <c r="J17">
-        <v>0.2200960720936408</v>
+        <v>0.2180319991282865</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.290334762114741</v>
+        <v>9.477837333333333</v>
       </c>
       <c r="N17">
-        <v>9.290334762114741</v>
+        <v>28.433512</v>
       </c>
       <c r="O17">
-        <v>0.2267887698805642</v>
+        <v>0.2264370231667431</v>
       </c>
       <c r="P17">
-        <v>0.2267887698805642</v>
+        <v>0.2264370231667431</v>
       </c>
       <c r="Q17">
-        <v>83.02311613040956</v>
+        <v>84.98708812299111</v>
       </c>
       <c r="R17">
-        <v>83.02311613040956</v>
+        <v>764.8837931069199</v>
       </c>
       <c r="S17">
-        <v>0.04991531744566077</v>
+        <v>0.04937051683770313</v>
       </c>
       <c r="T17">
-        <v>0.04991531744566077</v>
+        <v>0.04937051683770311</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>8.93650425482743</v>
+        <v>8.966928333333334</v>
       </c>
       <c r="H18">
-        <v>8.93650425482743</v>
+        <v>26.900785</v>
       </c>
       <c r="I18">
-        <v>0.2200960720936408</v>
+        <v>0.2180319991282865</v>
       </c>
       <c r="J18">
-        <v>0.2200960720936408</v>
+        <v>0.2180319991282865</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.5634242638437</v>
+        <v>10.56956933333333</v>
       </c>
       <c r="N18">
-        <v>10.5634242638437</v>
+        <v>31.708708</v>
       </c>
       <c r="O18">
-        <v>0.257866487684917</v>
+        <v>0.2525198240718027</v>
       </c>
       <c r="P18">
-        <v>0.257866487684917</v>
+        <v>0.2525198240718027</v>
       </c>
       <c r="Q18">
-        <v>94.40008587938654</v>
+        <v>94.77657072619779</v>
       </c>
       <c r="R18">
-        <v>94.40008587938654</v>
+        <v>852.9891365357801</v>
       </c>
       <c r="S18">
-        <v>0.05675540106403343</v>
+        <v>0.05505740206189836</v>
       </c>
       <c r="T18">
-        <v>0.05675540106403343</v>
+        <v>0.05505740206189834</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>8.93650425482743</v>
+        <v>8.966928333333334</v>
       </c>
       <c r="H19">
-        <v>8.93650425482743</v>
+        <v>26.900785</v>
       </c>
       <c r="I19">
-        <v>0.2200960720936408</v>
+        <v>0.2180319991282865</v>
       </c>
       <c r="J19">
-        <v>0.2200960720936408</v>
+        <v>0.2180319991282865</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>7.59713206719531</v>
+        <v>7.776677</v>
       </c>
       <c r="N19">
-        <v>7.59713206719531</v>
+        <v>23.330031</v>
       </c>
       <c r="O19">
-        <v>0.1854555600262591</v>
+        <v>0.185794240613957</v>
       </c>
       <c r="P19">
-        <v>0.1854555600262591</v>
+        <v>0.185794240613957</v>
       </c>
       <c r="Q19">
-        <v>67.89180304297679</v>
+        <v>69.73290533048167</v>
       </c>
       <c r="R19">
-        <v>67.89180304297679</v>
+        <v>627.5961479743351</v>
       </c>
       <c r="S19">
-        <v>0.04081804030970606</v>
+        <v>0.04050908970758293</v>
       </c>
       <c r="T19">
-        <v>0.04081804030970606</v>
+        <v>0.04050908970758292</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>8.93650425482743</v>
+        <v>8.966928333333334</v>
       </c>
       <c r="H20">
-        <v>8.93650425482743</v>
+        <v>26.900785</v>
       </c>
       <c r="I20">
-        <v>0.2200960720936408</v>
+        <v>0.2180319991282865</v>
       </c>
       <c r="J20">
-        <v>0.2200960720936408</v>
+        <v>0.2180319991282865</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.73290672060299</v>
+        <v>8.986648666666666</v>
       </c>
       <c r="N20">
-        <v>8.73290672060299</v>
+        <v>26.959946</v>
       </c>
       <c r="O20">
-        <v>0.2131812494770039</v>
+        <v>0.2147019304887888</v>
       </c>
       <c r="P20">
-        <v>0.2131812494770039</v>
+        <v>0.2147019304887888</v>
       </c>
       <c r="Q20">
-        <v>78.04165806567968</v>
+        <v>80.58263455084555</v>
       </c>
       <c r="R20">
-        <v>78.04165806567968</v>
+        <v>725.2437109576099</v>
       </c>
       <c r="S20">
-        <v>0.04692035565390307</v>
+        <v>0.04681189112117302</v>
       </c>
       <c r="T20">
-        <v>0.04692035565390307</v>
+        <v>0.04681189112117302</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>8.93650425482743</v>
+        <v>8.966928333333334</v>
       </c>
       <c r="H21">
-        <v>8.93650425482743</v>
+        <v>26.900785</v>
       </c>
       <c r="I21">
-        <v>0.2200960720936408</v>
+        <v>0.2180319991282865</v>
       </c>
       <c r="J21">
-        <v>0.2200960720936408</v>
+        <v>0.2180319991282865</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.78090589272482</v>
+        <v>5.045662</v>
       </c>
       <c r="N21">
-        <v>4.78090589272482</v>
+        <v>15.136986</v>
       </c>
       <c r="O21">
-        <v>0.1167079329312559</v>
+        <v>0.1205469816587084</v>
       </c>
       <c r="P21">
-        <v>0.1167079329312559</v>
+        <v>0.1205469816587084</v>
       </c>
       <c r="Q21">
-        <v>42.72458585226489</v>
+        <v>45.24408954822334</v>
       </c>
       <c r="R21">
-        <v>42.72458585226489</v>
+        <v>407.19680593401</v>
       </c>
       <c r="S21">
-        <v>0.02568695762033749</v>
+        <v>0.02628309939992908</v>
       </c>
       <c r="T21">
-        <v>0.02568695762033749</v>
+        <v>0.02628309939992908</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.09430026011704</v>
+        <v>3.473166333333333</v>
       </c>
       <c r="H22">
-        <v>3.09430026011704</v>
+        <v>10.419499</v>
       </c>
       <c r="I22">
-        <v>0.07620914327458606</v>
+        <v>0.08445047967504228</v>
       </c>
       <c r="J22">
-        <v>0.07620914327458606</v>
+        <v>0.08445047967504227</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>9.290334762114741</v>
+        <v>9.477837333333333</v>
       </c>
       <c r="N22">
-        <v>9.290334762114741</v>
+        <v>28.433512</v>
       </c>
       <c r="O22">
-        <v>0.2267887698805642</v>
+        <v>0.2264370231667431</v>
       </c>
       <c r="P22">
-        <v>0.2267887698805642</v>
+        <v>0.2264370231667431</v>
       </c>
       <c r="Q22">
-        <v>28.74708527098602</v>
+        <v>32.91810553894311</v>
       </c>
       <c r="R22">
-        <v>28.74708527098602</v>
+        <v>296.262949850488</v>
       </c>
       <c r="S22">
-        <v>0.01728337785689504</v>
+        <v>0.01912271522262012</v>
       </c>
       <c r="T22">
-        <v>0.01728337785689504</v>
+        <v>0.01912271522262011</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.09430026011704</v>
+        <v>3.473166333333333</v>
       </c>
       <c r="H23">
-        <v>3.09430026011704</v>
+        <v>10.419499</v>
       </c>
       <c r="I23">
-        <v>0.07620914327458606</v>
+        <v>0.08445047967504228</v>
       </c>
       <c r="J23">
-        <v>0.07620914327458606</v>
+        <v>0.08445047967504227</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>10.5634242638437</v>
+        <v>10.56956933333333</v>
       </c>
       <c r="N23">
-        <v>10.5634242638437</v>
+        <v>31.708708</v>
       </c>
       <c r="O23">
-        <v>0.257866487684917</v>
+        <v>0.2525198240718027</v>
       </c>
       <c r="P23">
-        <v>0.257866487684917</v>
+        <v>0.2525198240718027</v>
       </c>
       <c r="Q23">
-        <v>32.68640644733821</v>
+        <v>36.70987236636578</v>
       </c>
       <c r="R23">
-        <v>32.68640644733821</v>
+        <v>330.388851297292</v>
       </c>
       <c r="S23">
-        <v>0.01965178410569412</v>
+        <v>0.02132542027032103</v>
       </c>
       <c r="T23">
-        <v>0.01965178410569412</v>
+        <v>0.02132542027032102</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.09430026011704</v>
+        <v>3.473166333333333</v>
       </c>
       <c r="H24">
-        <v>3.09430026011704</v>
+        <v>10.419499</v>
       </c>
       <c r="I24">
-        <v>0.07620914327458606</v>
+        <v>0.08445047967504228</v>
       </c>
       <c r="J24">
-        <v>0.07620914327458606</v>
+        <v>0.08445047967504227</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>7.59713206719531</v>
+        <v>7.776677</v>
       </c>
       <c r="N24">
-        <v>7.59713206719531</v>
+        <v>23.330031</v>
       </c>
       <c r="O24">
-        <v>0.1854555600262591</v>
+        <v>0.185794240613957</v>
       </c>
       <c r="P24">
-        <v>0.1854555600262591</v>
+        <v>0.185794240613957</v>
       </c>
       <c r="Q24">
-        <v>23.50780773166595</v>
+        <v>27.00969274160767</v>
       </c>
       <c r="R24">
-        <v>23.50780773166595</v>
+        <v>243.087234674469</v>
       </c>
       <c r="S24">
-        <v>0.01413340934510978</v>
+        <v>0.01569041274070889</v>
       </c>
       <c r="T24">
-        <v>0.01413340934510978</v>
+        <v>0.01569041274070889</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.09430026011704</v>
+        <v>3.473166333333333</v>
       </c>
       <c r="H25">
-        <v>3.09430026011704</v>
+        <v>10.419499</v>
       </c>
       <c r="I25">
-        <v>0.07620914327458606</v>
+        <v>0.08445047967504228</v>
       </c>
       <c r="J25">
-        <v>0.07620914327458606</v>
+        <v>0.08445047967504227</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>8.73290672060299</v>
+        <v>8.986648666666666</v>
       </c>
       <c r="N25">
-        <v>8.73290672060299</v>
+        <v>26.959946</v>
       </c>
       <c r="O25">
-        <v>0.2131812494770039</v>
+        <v>0.2147019304887888</v>
       </c>
       <c r="P25">
-        <v>0.2131812494770039</v>
+        <v>0.2147019304887888</v>
       </c>
       <c r="Q25">
-        <v>27.02223553713968</v>
+        <v>31.21212559856155</v>
       </c>
       <c r="R25">
-        <v>27.02223553713968</v>
+        <v>280.909130387054</v>
       </c>
       <c r="S25">
-        <v>0.01624636038484826</v>
+        <v>0.0181316810169358</v>
       </c>
       <c r="T25">
-        <v>0.01624636038484826</v>
+        <v>0.01813168101693579</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3.09430026011704</v>
+        <v>3.473166333333333</v>
       </c>
       <c r="H26">
-        <v>3.09430026011704</v>
+        <v>10.419499</v>
       </c>
       <c r="I26">
-        <v>0.07620914327458606</v>
+        <v>0.08445047967504228</v>
       </c>
       <c r="J26">
-        <v>0.07620914327458606</v>
+        <v>0.08445047967504227</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.78090589272482</v>
+        <v>5.045662</v>
       </c>
       <c r="N26">
-        <v>4.78090589272482</v>
+        <v>15.136986</v>
       </c>
       <c r="O26">
-        <v>0.1167079329312559</v>
+        <v>0.1205469816587084</v>
       </c>
       <c r="P26">
-        <v>0.1167079329312559</v>
+        <v>0.1205469816587084</v>
       </c>
       <c r="Q26">
-        <v>14.7935583474535</v>
+        <v>17.52442338777933</v>
       </c>
       <c r="R26">
-        <v>14.7935583474535</v>
+        <v>157.719810490014</v>
       </c>
       <c r="S26">
-        <v>0.008894211582038861</v>
+        <v>0.01018025042445645</v>
       </c>
       <c r="T26">
-        <v>0.008894211582038861</v>
+        <v>0.01018025042445645</v>
       </c>
     </row>
   </sheetData>
